--- a/StructureDefinition-us-core-medicationrequest.xlsx
+++ b/StructureDefinition-us-core-medicationrequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -1403,6 +1403,9 @@
   </si>
   <si>
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>☞☞☞ Use  SNOMED CT and SPL(NCI Thesaurus) values in final version to meet USCDI terminology requirements</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -8105,9 +8108,11 @@
       <c r="X50" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y50" s="2"/>
+      <c r="Y50" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8125,7 +8130,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8146,21 +8151,21 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8186,16 +8191,16 @@
         <v>179</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8223,10 +8228,10 @@
         <v>183</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -8244,7 +8249,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8265,21 +8270,21 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8302,13 +8307,13 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8359,7 +8364,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8386,15 +8391,15 @@
         <v>83</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8506,10 +8511,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8623,10 +8628,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8652,14 +8657,14 @@
         <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8687,10 +8692,10 @@
         <v>183</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8708,7 +8713,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8735,15 +8740,15 @@
         <v>83</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8766,19 +8771,19 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8807,7 +8812,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8825,7 +8830,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8846,21 +8851,21 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8883,19 +8888,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8944,7 +8949,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8965,21 +8970,21 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9002,19 +9007,19 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9063,7 +9068,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9084,21 +9089,21 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9121,19 +9126,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>83</v>
@@ -9182,7 +9187,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9203,7 +9208,7 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>83</v>
@@ -9214,10 +9219,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9240,17 +9245,17 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>83</v>
@@ -9299,7 +9304,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9320,7 +9325,7 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>83</v>
@@ -9331,10 +9336,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9357,13 +9362,13 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9414,7 +9419,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9432,10 +9437,10 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>83</v>
@@ -9446,10 +9451,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9561,10 +9566,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9678,10 +9683,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9797,10 +9802,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9823,16 +9828,16 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9882,7 +9887,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9903,7 +9908,7 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>83</v>
@@ -9914,10 +9919,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10029,10 +10034,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10146,10 +10151,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10265,10 +10270,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10291,13 +10296,13 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10348,7 +10353,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10369,7 +10374,7 @@
         <v>83</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>83</v>
@@ -10380,10 +10385,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10406,13 +10411,13 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10463,7 +10468,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10484,7 +10489,7 @@
         <v>83</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>83</v>
@@ -10495,10 +10500,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10521,13 +10526,13 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10578,7 +10583,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10599,7 +10604,7 @@
         <v>83</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>83</v>
@@ -10610,10 +10615,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10636,19 +10641,19 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10697,7 +10702,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10715,10 +10720,10 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>83</v>
@@ -10729,10 +10734,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10755,16 +10760,16 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10814,7 +10819,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10832,24 +10837,24 @@
         <v>83</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10872,13 +10877,13 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10929,7 +10934,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10947,24 +10952,24 @@
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10987,16 +10992,16 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11046,7 +11051,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11064,10 +11069,10 @@
         <v>83</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>83</v>
@@ -11078,10 +11083,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11104,13 +11109,13 @@
         <v>83</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11161,7 +11166,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11182,7 +11187,7 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>301</v>
@@ -11193,10 +11198,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11219,13 +11224,13 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11276,7 +11281,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11294,10 +11299,10 @@
         <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>83</v>
@@ -11308,10 +11313,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11423,10 +11428,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11540,10 +11545,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11659,10 +11664,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11688,13 +11693,13 @@
         <v>419</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11723,10 +11728,10 @@
         <v>183</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>83</v>
@@ -11744,7 +11749,7 @@
         <v>83</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>92</v>
@@ -11762,24 +11767,24 @@
         <v>83</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11805,10 +11810,10 @@
         <v>179</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11838,10 +11843,10 @@
         <v>183</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
@@ -11859,7 +11864,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -11877,24 +11882,24 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11917,13 +11922,13 @@
         <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11974,7 +11979,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -11989,13 +11994,13 @@
         <v>104</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>83</v>
@@ -12006,14 +12011,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12032,16 +12037,16 @@
         <v>83</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12091,7 +12096,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12112,7 +12117,7 @@
         <v>83</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>83</v>
@@ -12123,10 +12128,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12149,16 +12154,16 @@
         <v>83</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12208,7 +12213,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12223,13 +12228,13 @@
         <v>104</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-us-core-medicationrequest.xlsx
+++ b/StructureDefinition-us-core-medicationrequest.xlsx
@@ -90,7 +90,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The US Core MedicationRequest Profile inherits from the FHIR [MedicationRequest](https://hl7.org/fhir/R4/medicationrequest.html) resource; refer to it for scope and usage definitions. This profile meets the requirements of the U.S. Core Data for Interoperability (USCDI)  *Medications* Data Class. This profile sets minimum expectations for the MedicationRequest resource to record, search, and fetch a patient's medication prescriptions or orders. It specifies which core elements, extensions, vocabularies, and value sets **SHALL** be present in the resource and constrains how the elements are used. Providing the floor for standards development for specific use cases promotes interoperability and adoption.</t>
+    <t>The US Core MedicationRequest Profile inherits from the FHIR [MedicationRequest](https://hl7.org/fhir/R4/medicationrequest.html) resource; refer to it for scope and usage definitions. This profile meets the requirements of the [U.S. Core Data for Interoperability (USCDI)](https://www.healthit.gov/isp/united-states-core-data-interoperability-uscdi)  *Medications* Data Class. This profile sets minimum expectations for the MedicationRequest resource to record, search, and fetch a patient's medication prescriptions or orders. It specifies which core elements, extensions, vocabularies, and value sets **SHALL** be present in the resource and constrains how the elements are used. Providing the floor for standards development for specific use cases promotes interoperability and adoption.</t>
   </si>
   <si>
     <t>Purpose</t>
